--- a/Cantata 2023.xlsx
+++ b/Cantata 2023.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Cantata 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\REPOSITÓRIO\CANTATA-DE-NATAL-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE75B9D-A25D-4311-A69C-5C16A7C1A99C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E249E-70AB-464F-BE72-9694280DD899}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{088A4B2E-B4CA-481D-85F1-047C783BDED2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{088A4B2E-B4CA-481D-85F1-047C783BDED2}"/>
   </bookViews>
   <sheets>
     <sheet name="SILENT NYGTH" sheetId="2" r:id="rId1"/>
     <sheet name="NASCEU EM BELEM" sheetId="3" r:id="rId2"/>
     <sheet name="(G#) IT's CRHRISTMAS" sheetId="1" r:id="rId3"/>
     <sheet name="(A#)DANCE" sheetId="5" r:id="rId4"/>
-    <sheet name="DANCE" sheetId="4" r:id="rId5"/>
+    <sheet name="(D) ME OUVE" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>INTRO</t>
   </si>
@@ -70,9 +70,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>C - NASCEU EM BELÉM</t>
-  </si>
-  <si>
     <t xml:space="preserve">G# </t>
   </si>
   <si>
@@ -89,13 +86,31 @@
   </si>
   <si>
     <t xml:space="preserve">(usar capo 1º casa) </t>
+  </si>
+  <si>
+    <t>push guita (tem 2� guita )</t>
+  </si>
+  <si>
+    <t>ME OUVE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHORUS</t>
+  </si>
+  <si>
+    <t>NASCEU EM BELÉM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +148,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -160,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -175,6 +205,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,21 +651,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4630E8A6-CF9A-497C-AFA5-9F669298EF24}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,120 +773,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1B9CFF-B790-4BCE-93F0-181ABF15021E}">
-  <dimension ref="A1:K18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="1.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9081D7C-F596-4E5C-B010-9A7FF8C98E5B}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -865,7 +788,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>18</v>
@@ -873,7 +796,7 @@
     </row>
     <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -906,6 +829,125 @@
         <v>4</v>
       </c>
       <c r="C8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9081D7C-F596-4E5C-B010-9A7FF8C98E5B}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -963,13 +1005,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE85ADC-D818-41A2-8283-3C213C76C3C1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24FD35F-086B-4879-96B2-DA4CA44B5C25}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>